--- a/Wilder at Catalogue.xlsx
+++ b/Wilder at Catalogue.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="411" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3A78A36-595B-4A6B-97B8-F96F93314812}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darlu\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C663EFBB-05C5-4F28-9784-262A15B3994C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alusvia" sheetId="1" r:id="rId1"/>
     <sheet name="Special Materials" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="138">
   <si>
     <t>Item Name</t>
   </si>
@@ -320,24 +326,243 @@
     <t>Available from</t>
   </si>
   <si>
-    <t>price as weapon</t>
-  </si>
-  <si>
-    <t>price as armour</t>
-  </si>
-  <si>
-    <t>effect as weapon</t>
-  </si>
-  <si>
-    <t>effect as armour</t>
+    <t>Price as Weapon</t>
+  </si>
+  <si>
+    <t>Price as Armour</t>
+  </si>
+  <si>
+    <t>Effect as Weapon</t>
+  </si>
+  <si>
+    <t>Effect as Armour</t>
+  </si>
+  <si>
+    <t>Other Effects</t>
+  </si>
+  <si>
+    <t>Fine Adamantine</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>200gp + Weapon Price</t>
+  </si>
+  <si>
+    <t>500gp + Armour Price</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve">The weapon has a +1 bonus to attack and damage rolls. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>Siege Weapon:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> This weapon deals double damage against structures and objects. (Excluding weapons with the Finesse or Light properties)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve">This armour grants a +1 bonus to Armour Class. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>Unbreakable:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> This armour is immune to all forms of weathering, aging, or decay. Critical hits deal no additional dice of damage to you. (Crunchy Crits - the base weapon die is still maximised)</t>
+    </r>
+  </si>
+  <si>
+    <t>Untarnished metal tempered deep in volcanic dwarven mines. Once forged properly, it is impossible to scratch or deform with mortal means. Possesses a slight greenish hue, but is otherwise a dull steel colour.</t>
+  </si>
+  <si>
+    <t>Fine Mithral</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve">The weapon has a +1 bonus to attack and damage rolls. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>Parry:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> As a reaction to being hit with a melee attack, you may add a +2 bonus to your AC against that attack, potentially causing it to miss. (Excluding weapons with the Heavy or Two Handed properties)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This armour grants a +1 bonus to Armour Class. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lightweight:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This armour weighs half as much as normal, and ignores disadvantage on Dexterity (Stealth) checks due to armour. (Medium or Heavy armour only)</t>
+    </r>
+  </si>
+  <si>
+    <t>Also called silversteel, this metal is formed within ancient frostbitten mountain regions, and has a unique crystalline internal structure that make it both strong and very light. It is a shining silvery metal, with a touch of a deep, glacial blue.</t>
+  </si>
+  <si>
+    <t>Fine Drakeleather</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>50gp + Weapon Price</t>
+  </si>
+  <si>
+    <t>You have advantage on checks made to maintain your grip on this weapon, making it more difficult to disarm you. Can be combined with other materials and enchantments.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve">This armour grants a +1 bonus to Armour Class. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>Flexible:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> You have advantage on checks made to escape grapples, and can move an additional 10 feet whenever you take the Dash action.</t>
+    </r>
+  </si>
+  <si>
+    <t>Spell Focus (50 GP + Item Price) - You have advantage on checks made to maintain your grip on this focus, making it more difficult to disarm you. Can be combined with other materials and enchantments.</t>
+  </si>
+  <si>
+    <t>Produced from the leather of Kingsherd cattle, known for their highly exclusive and expensive hides, this leather is a deep reddish-brown. By law, all pieces made with Drakeleather must have a stamp worked into it of the royal seal to verify authenticity.</t>
+  </si>
+  <si>
+    <t>Fine Ironwood</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve">The weapon has a +1 bonus to attack and damage rolls. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>Supple:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> Ranged weapons made with Ironwood gain a bonus to each of their range increments equal to half the normal increment. (Bows and Crossbows only)</t>
+    </r>
+  </si>
+  <si>
+    <t>No beneficial effect.</t>
   </si>
   <si>
     <t>Memnesium</t>
   </si>
   <si>
-    <t>Metal</t>
-  </si>
-  <si>
     <t>140gp + Weapon Price</t>
   </si>
   <si>
@@ -347,41 +572,41 @@
     <t>+1,  When hitting a creature whilst hidden with this weapon, the creature must make a DC 14 Wisdom saving throw. On a failure, the creature forgets it was attacked by you, and you remain hidden to that creature. On a success, it becomes aware of your presence. In either case, it has disadvantage on Wisdom (Perception) checks to perceive you, and disadvantage on it's next attack directed at you, for the next minute. A creature that succeeds on this saving throw is immune to the effects of Memnesium for the next 24 hours</t>
   </si>
   <si>
-    <t>Mithral</t>
-  </si>
-  <si>
-    <t>200gp + Weapon Price</t>
-  </si>
-  <si>
-    <t>500gp + Armour Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Half the normal weight. Ignore disadvantage on Dexterity (Stealth) checks due to armour. Ignore Strength requirement of heavy armour. </t>
-  </si>
-  <si>
     <t>Syrax</t>
   </si>
   <si>
     <t>Stone</t>
   </si>
   <si>
-    <t>Adamantine</t>
-  </si>
-  <si>
-    <t>10x item cost</t>
-  </si>
-  <si>
     <t>Balcorite</t>
   </si>
   <si>
-    <t>No beneficial effect. Is frequently used for ceremonial armour.</t>
+    <t>400gp + Weapon Price</t>
+  </si>
+  <si>
+    <t>5x Item Price</t>
+  </si>
+  <si>
+    <t>This weapon has a +3 bonus to attack and damage rolls, and deals an additional 1d6 damage on a successful hit. On a successful hit, the bonus is reduced by one. When it reaches +0, the weapon breaks, and cannot be effectively used until it is repaired with Smith's Tools over an hour's work (DC 20) at a cost of one quarter the price of the original.</t>
+  </si>
+  <si>
+    <t>No beneficial effect. Is frequently used for ceremonial or decorative armour.</t>
+  </si>
+  <si>
+    <t>Spell Focus (400GP + Item Price) - When using this focus, you may choose to cast a spell of any level without expending a spell slot. The focus breaks immediately after casting, and cannot be repaired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A brittle and difficult to work metal, balcorite weapons must be shattered rather than forged into a useable edge. It is a dark metal, flecked with gold. </t>
+  </si>
+  <si>
+    <t>https://app-shopping-list-ovn4llhyfntbqzydt3drdt.streamlit.app/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +641,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -438,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,12 +701,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -540,36 +796,42 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8EFEAFC-2E9F-420D-B8EE-C6FFA9527BAB}" name="Table2" displayName="Table2" ref="B2:J68" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8EFEAFC-2E9F-420D-B8EE-C6FFA9527BAB}" name="Table2" displayName="Table2" ref="B2:J68" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B2:J68" xr:uid="{E8EFEAFC-2E9F-420D-B8EE-C6FFA9527BAB}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{35E69B6F-C0E1-4066-92EC-1519DF61ECB8}" name="Item Name" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{35F5132E-2E73-4052-965B-E150170C15D7}" name="Item Price" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{086A8BBE-0BD5-46A6-98A7-A9FD218321BB}" name="Attuned" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{994BDDE9-2CBF-444C-AEA6-62062797EEB1}" name="Rarity" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{7AFA041F-0BA0-4836-93F5-86BFCA7CAFFB}" name="Type" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{D0763BC0-F740-4109-96D0-B459B4442602}" name="Number Available" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{379B3F8E-5A56-459C-9A7E-948965B49F41}" name="Vendor" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{F4122C50-254B-491B-A97E-6A544F8D6AFB}" name="Source" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{8BDEA5E9-9C2B-4E54-A6FE-607DDAB75BD3}" name="Description" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{35E69B6F-C0E1-4066-92EC-1519DF61ECB8}" name="Item Name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{35F5132E-2E73-4052-965B-E150170C15D7}" name="Item Price" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{086A8BBE-0BD5-46A6-98A7-A9FD218321BB}" name="Attuned" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{994BDDE9-2CBF-444C-AEA6-62062797EEB1}" name="Rarity" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{7AFA041F-0BA0-4836-93F5-86BFCA7CAFFB}" name="Type" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{D0763BC0-F740-4109-96D0-B459B4442602}" name="Number Available" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{379B3F8E-5A56-459C-9A7E-948965B49F41}" name="Vendor" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{F4122C50-254B-491B-A97E-6A544F8D6AFB}" name="Source" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{8BDEA5E9-9C2B-4E54-A6FE-607DDAB75BD3}" name="Description" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2FCA06C-FB36-4B12-A76B-6185C2E7F2F8}" name="Table3" displayName="Table3" ref="B3:I41" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B3:I41" xr:uid="{D2FCA06C-FB36-4B12-A76B-6185C2E7F2F8}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5732E204-66E2-40D7-9635-E3A99DE23C71}" name="Material Name" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C157FDE3-8A35-464F-AE58-02B8FC1D255B}" name="Rarity" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{FB117894-0E0E-40D8-8EA2-0BCD53DC713E}" name="Material Type" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{26A15A5C-FBDC-4C64-95E1-2B939DB51CD5}" name="Available from" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{20CFBEAD-C374-4F99-948A-B6CA3219317D}" name="price as weapon" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8A3FEA88-80EB-4D94-86E9-763885D8DA30}" name="price as armour" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{EE1EDE9B-49AD-4BE1-BAED-EB56B64D5207}" name="effect as weapon" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{E53376AA-7FD3-4AFB-AC44-4BBE5199FBC2}" name="effect as armour" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2FCA06C-FB36-4B12-A76B-6185C2E7F2F8}" name="Table3" displayName="Table3" ref="B3:K18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B3:K18" xr:uid="{D2FCA06C-FB36-4B12-A76B-6185C2E7F2F8}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{5732E204-66E2-40D7-9635-E3A99DE23C71}" name="Material Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C157FDE3-8A35-464F-AE58-02B8FC1D255B}" name="Rarity" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{FB117894-0E0E-40D8-8EA2-0BCD53DC713E}" name="Material Type" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{26A15A5C-FBDC-4C64-95E1-2B939DB51CD5}" name="Available from" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{20CFBEAD-C374-4F99-948A-B6CA3219317D}" name="Price as Weapon" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{8A3FEA88-80EB-4D94-86E9-763885D8DA30}" name="Price as Armour" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{EE1EDE9B-49AD-4BE1-BAED-EB56B64D5207}" name="Effect as Weapon" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{E53376AA-7FD3-4AFB-AC44-4BBE5199FBC2}" name="Effect as Armour" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{DDFA3083-0CF5-4AAE-8D5E-292BA23A4830}" name="Other Effects" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{735C8580-77A0-4F69-BBC6-2C387EAF9C57}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -894,11 +1156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
@@ -911,7 +1173,7 @@
     <col min="10" max="10" width="121.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="43.5">
+    <row r="3" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,7 +1231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="43.5">
+    <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -998,7 +1260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="29.25">
+    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="72.75">
+    <row r="6" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1056,7 +1318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="72.75">
+    <row r="7" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1085,7 +1347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="29.25">
+    <row r="8" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1114,7 +1376,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="43.5">
+    <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1143,7 +1405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="43.5">
+    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
@@ -1172,7 +1434,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="29.25">
+    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1201,7 +1463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="29.25">
+    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
@@ -1230,7 +1492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="43.5">
+    <row r="13" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1259,7 +1521,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="29.25">
+    <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
@@ -1288,7 +1550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1317,7 +1579,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="29.25">
+    <row r="16" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
@@ -1336,7 +1598,9 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1344,7 +1608,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
@@ -1363,13 +1627,15 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" ht="43.5">
+    <row r="18" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
@@ -1388,7 +1654,9 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>42</v>
       </c>
@@ -1396,7 +1664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="43.5">
+    <row r="19" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>76</v>
       </c>
@@ -1415,7 +1683,9 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1423,7 +1693,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="39" customHeight="1">
+    <row r="20" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
@@ -1452,7 +1722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="43.5">
+    <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>82</v>
       </c>
@@ -1481,7 +1751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="57.75">
+    <row r="22" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>86</v>
       </c>
@@ -1510,7 +1780,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="57.75">
+    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>88</v>
       </c>
@@ -1539,7 +1809,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="72.75">
+    <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>90</v>
       </c>
@@ -1568,7 +1838,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1579,7 +1849,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1590,7 +1860,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1601,7 +1871,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1612,7 +1882,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1623,7 +1893,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1634,7 +1904,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1645,7 +1915,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1656,7 +1926,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1667,7 +1937,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1678,7 +1948,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1689,7 +1959,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1700,7 +1970,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1711,7 +1981,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1722,7 +1992,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1733,7 +2003,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1744,7 +2014,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1755,7 +2025,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1766,7 +2036,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1777,7 +2047,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1788,7 +2058,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1799,7 +2069,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1810,7 +2080,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1821,7 +2091,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1832,7 +2102,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1843,7 +2113,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1854,7 +2124,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1865,7 +2135,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1876,7 +2146,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1887,7 +2157,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1898,7 +2168,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1909,7 +2179,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1920,7 +2190,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1931,7 +2201,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1942,7 +2212,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1953,7 +2223,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1964,7 +2234,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1975,7 +2245,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1986,7 +2256,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1997,7 +2267,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2008,7 +2278,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2019,7 +2289,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2030,7 +2300,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2041,7 +2311,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2075,13 +2345,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACFE06E-4D9D-4BA5-BB28-28E6651D767D}">
-  <dimension ref="B3:I41"/>
+  <dimension ref="B3:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
@@ -2091,9 +2361,11 @@
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="88.5703125" customWidth="1"/>
     <col min="9" max="9" width="76" customWidth="1"/>
+    <col min="10" max="10" width="72.140625" customWidth="1"/>
+    <col min="11" max="11" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="29.25">
+    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>92</v>
       </c>
@@ -2118,134 +2390,238 @@
       <c r="I3" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="87">
+      <c r="J3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="48" customHeight="1">
+      <c r="H4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <v>103</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9">
+        <v>113</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9">
+        <v>102</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9">
+        <v>57</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2254,8 +2630,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2264,8 +2642,10 @@
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2274,8 +2654,10 @@
       <c r="G13" s="1"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2284,8 +2666,10 @@
       <c r="G14" s="1"/>
       <c r="H14" s="3"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2294,8 +2678,10 @@
       <c r="G15" s="1"/>
       <c r="H15" s="3"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2304,8 +2690,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2314,8 +2702,10 @@
       <c r="G17" s="1"/>
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2324,8 +2714,10 @@
       <c r="G18" s="1"/>
       <c r="H18" s="3"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2334,8 +2726,10 @@
       <c r="G19" s="1"/>
       <c r="H19" s="3"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2344,8 +2738,10 @@
       <c r="G20" s="1"/>
       <c r="H20" s="3"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2354,8 +2750,10 @@
       <c r="G21" s="1"/>
       <c r="H21" s="3"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2364,8 +2762,10 @@
       <c r="G22" s="1"/>
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2374,8 +2774,10 @@
       <c r="G23" s="1"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2384,8 +2786,10 @@
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2394,8 +2798,10 @@
       <c r="G25" s="1"/>
       <c r="H25" s="3"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2404,8 +2810,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2414,8 +2822,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="3"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2424,8 +2834,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="3"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2434,8 +2846,10 @@
       <c r="G29" s="1"/>
       <c r="H29" s="3"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2444,8 +2858,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2454,8 +2870,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2464,8 +2882,10 @@
       <c r="G32" s="1"/>
       <c r="H32" s="3"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2474,8 +2894,10 @@
       <c r="G33" s="1"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2484,8 +2906,10 @@
       <c r="G34" s="1"/>
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2494,8 +2918,10 @@
       <c r="G35" s="1"/>
       <c r="H35" s="3"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2504,8 +2930,10 @@
       <c r="G36" s="1"/>
       <c r="H36" s="3"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2514,8 +2942,10 @@
       <c r="G37" s="1"/>
       <c r="H37" s="3"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2524,8 +2954,10 @@
       <c r="G38" s="1"/>
       <c r="H38" s="3"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2534,8 +2966,10 @@
       <c r="G39" s="1"/>
       <c r="H39" s="3"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2544,8 +2978,10 @@
       <c r="G40" s="1"/>
       <c r="H40" s="3"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2554,6 +2990,32 @@
       <c r="G41" s="1"/>
       <c r="H41" s="3"/>
       <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2561,4 +3023,27 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044BCD9D-0426-4108-BAAB-772F55CD8F23}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B0564328-4F41-49E4-B929-550680269A22}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Wilder at Catalogue.xlsx
+++ b/Wilder at Catalogue.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darlu\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C663EFBB-05C5-4F28-9784-262A15B3994C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="120_S{BE67F618-8EFC-5816-B12D-695B2ED96EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECAC5AD1-7A90-4217-866B-C3354DFE94E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alusvia" sheetId="1" r:id="rId1"/>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="147">
   <si>
     <t>Item Name</t>
   </si>
@@ -70,235 +65,244 @@
     <t>eyes of charming</t>
   </si>
   <si>
+    <t>75gp</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>Wondrous Item</t>
+  </si>
+  <si>
+    <t>Garm</t>
+  </si>
+  <si>
+    <t>https://roll20.net/compendium/dnd5e/Eyes%20of%20Charming#content</t>
+  </si>
+  <si>
+    <t>These crystal lenses fit over the eyes. They have 3 charges. While wearing them, you can expend 1 charge as an action to cast the charm person spell (save DC 13) on a humanoid within 30 feet of you, provided that you and the target can see each other. The lenses regain all expended charges daily at dawn.</t>
+  </si>
+  <si>
+    <t>Ring of Poison Resistance</t>
+  </si>
+  <si>
+    <t>125gp</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>https://roll20.net/compendium/dnd5e/Ring%20of%20Poison%20Resistance#content</t>
+  </si>
+  <si>
+    <t>You have resistance to poison damage while wearing this ring.</t>
+  </si>
+  <si>
+    <t>Moon Touched Sword</t>
+  </si>
+  <si>
+    <t>weapon price +10gp</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Any sword or dagger</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>https://dnd5e.wikidot.com/wondrous-items:moon-touched-sword</t>
+  </si>
+  <si>
+    <t>In darkness, the unsheathed blade of this sword sheds moonlight, creating bright light in a 15-foot radius and dim light for an additional 15 feet.</t>
+  </si>
+  <si>
+    <t>Javelin of Lightning</t>
+  </si>
+  <si>
+    <t>90gp</t>
+  </si>
+  <si>
+    <t>Javelin</t>
+  </si>
+  <si>
+    <t>https://www.dndbeyond.com/magic-items/4667-javelin-of-lightning?srsltid=AfmBOopZ2jtEevMudcDDV_9JY5jGJc4j0ltbZPTgSlm3jHk-7qM0HbTB</t>
+  </si>
+  <si>
+    <t>This javelin is a magic weapon. When you hurl it and speak its command word, it transforms into a bolt of lightning, forming a line 5 feet wide that extends out from you to a target within 120 feet. Each creature in the line excluding you and the target must make a DC 13 Dexterity saving throw, taking 4d6 lightning damage on a failed save, and half as much damage on a successful one. The lightning bolt turns back into a javelin when it reaches the target. Make a ranged weapon attack against the target. On a hit, the target takes damage from the javelin plus 4d6 lightning damage.The javelin's property can't be used again until the next dawn. In the meantime, the javelin can still be used as a magic weapon.</t>
+  </si>
+  <si>
+    <t>Necklace of Adaptation</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>https://www.dndbeyond.com/magic-items/4682-necklace-of-adaptation?srsltid=AfmBOoo8rmmnt83MlpKBVuIpMyQI73_1X5q0qMIC7rnkD2WYS0AKw3gq</t>
+  </si>
+  <si>
+    <t>While wearing this necklace, you can breathe normally in any environment, and you have Advantage on saving throws made to avoid or end the Poisoned condition.</t>
+  </si>
+  <si>
+    <t>Damaged, Secondhand bag of holding</t>
+  </si>
+  <si>
+    <t>30gp</t>
+  </si>
+  <si>
+    <t>Homebrew</t>
+  </si>
+  <si>
+    <t>As standard Bag of Holding, but when you withdraw an item, you must roll 1d6. On a roll of 1-2, you retrieve the item you intended. On a roll of 3-4, you retrieve nothing. On a roll of 5-6, you retrieve an item chosen by the DM. Items may only be retrieved once per minute, as an action.</t>
+  </si>
+  <si>
+    <t>Spies' Murmur</t>
+  </si>
+  <si>
+    <t>40gp</t>
+  </si>
+  <si>
+    <t>https://dnd5e.wikidot.com/wondrous-items:spies-murmur</t>
+  </si>
+  <si>
+    <t>This headpiece, crafted from dark metal, is worn curved around the ear. If you know a creature wearing another spies' murmur and that creature is within 1 mile of you, you can communicate telepathically with each other. As a bonus action, you can allow that creature to hear everything you hear for 1 hour. You can end this effect as a bonus action, and it ends if you're incapacitated.</t>
+  </si>
+  <si>
+    <t>Slippers of Spider Climbing</t>
+  </si>
+  <si>
+    <t>https://roll20.net/compendium/dnd5e/Slippers%20of%20Spider%20Climbing#content</t>
+  </si>
+  <si>
+    <t>While you wear these light shoes, you can move up, down, and across vertical surfaces and upside down along ceilings, while leaving your hands free. You have a climbing speed equal to your walking speed. However, the slippers don't allow you to move this way on a slippery surface, such as one covered by ice or oil.</t>
+  </si>
+  <si>
+    <t>Potion of Healing(Standard)</t>
+  </si>
+  <si>
+    <t>Potion</t>
+  </si>
+  <si>
+    <t>https://dnd5e.wikidot.com/wondrous-items:potion-of-healing</t>
+  </si>
+  <si>
+    <t>You regain hit points when you drink this potion. The number of hit points depends on the potion's rarity, as shown in the Potions of Healing table. Whatever its potency, the potion's red liquid glimmers when agitated. (2d4+2)</t>
+  </si>
+  <si>
+    <t>Potion of Healing(Greater)</t>
+  </si>
+  <si>
     <t>50gp</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Uncommon</t>
-  </si>
-  <si>
-    <t>Wondrous Item</t>
-  </si>
-  <si>
-    <t>Garm</t>
-  </si>
-  <si>
-    <t>https://roll20.net/compendium/dnd5e/Eyes%20of%20Charming#content</t>
-  </si>
-  <si>
-    <t>These crystal lenses fit over the eyes. They have 3 charges. While wearing them, you can expend 1 charge as an action to cast the charm person spell (save DC 13) on a humanoid within 30 feet of you, provided that you and the target can see each other. The lenses regain all expended charges daily at dawn.</t>
-  </si>
-  <si>
-    <t>Ring of Poison Resistance</t>
+    <t>You regain hit points when you drink this potion. The number of hit points depends on the potion's rarity, as shown in the Potions of Healing table. Whatever its potency, the potion's red liquid glimmers when agitated. (4d4+4)</t>
+  </si>
+  <si>
+    <t>Potion of Fire Breath</t>
+  </si>
+  <si>
+    <t>https://dnd5e.wikidot.com/wondrous-items:potion-of-fire-breath</t>
+  </si>
+  <si>
+    <t>After drinking this potion, you can use a bonus action to exhale fire at a target within 30 feet of you. The target must make a DC 13 Dexterity saving throw, taking 4d6 fire damage on a failed save, or half as much damage on a successful one. The effect ends after you exhale the fire three times or when 1 hour has passed.</t>
+  </si>
+  <si>
+    <t>Potion of Water Breathing</t>
+  </si>
+  <si>
+    <t>15gp</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>https://dnd5e.wikidot.com/wondrous-items:potion-of-water-breathing</t>
+  </si>
+  <si>
+    <t>You can breathe underwater for 1 hour after drinking this potion. Its cloudy green fluid smells of the sea and has a jellyfish-like bubble floating in it.</t>
+  </si>
+  <si>
+    <t>Helm of Sharp Thought</t>
   </si>
   <si>
     <t>100gp</t>
   </si>
   <si>
-    <t>Rare</t>
-  </si>
-  <si>
-    <t>Ring</t>
-  </si>
-  <si>
-    <t>https://roll20.net/compendium/dnd5e/Ring%20of%20Poison%20Resistance#content</t>
-  </si>
-  <si>
-    <t>You have resistance to poison damage while wearing this ring.</t>
-  </si>
-  <si>
-    <t>Moon Touched Sword</t>
-  </si>
-  <si>
-    <t>weapon price +10gp</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Any sword or dagger</t>
-  </si>
-  <si>
-    <t>Any</t>
-  </si>
-  <si>
-    <t>https://dnd5e.wikidot.com/wondrous-items:moon-touched-sword</t>
-  </si>
-  <si>
-    <t>In darkness, the unsheathed blade of this sword sheds moonlight, creating bright light in a 15-foot radius and dim light for an additional 15 feet.</t>
-  </si>
-  <si>
-    <t>Javelin of Lightning</t>
-  </si>
-  <si>
-    <t>Javelin</t>
-  </si>
-  <si>
-    <t>https://www.dndbeyond.com/magic-items/4667-javelin-of-lightning?srsltid=AfmBOopZ2jtEevMudcDDV_9JY5jGJc4j0ltbZPTgSlm3jHk-7qM0HbTB</t>
-  </si>
-  <si>
-    <t>This javelin is a magic weapon. When you hurl it and speak its command word, it transforms into a bolt of lightning, forming a line 5 feet wide that extends out from you to a target within 120 feet. Each creature in the line excluding you and the target must make a DC 13 Dexterity saving throw, taking 4d6 lightning damage on a failed save, and half as much damage on a successful one. The lightning bolt turns back into a javelin when it reaches the target. Make a ranged weapon attack against the target. On a hit, the target takes damage from the javelin plus 4d6 lightning damage.The javelin's property can't be used again until the next dawn. In the meantime, the javelin can still be used as a magic weapon.</t>
-  </si>
-  <si>
-    <t>Necklace of Adaptation</t>
+    <t xml:space="preserve">You may cast the Mind Sliver cantrip at will, with a Save DC of 14. </t>
+  </si>
+  <si>
+    <t>Boots of the Bogstrider</t>
+  </si>
+  <si>
+    <t>140gp</t>
+  </si>
+  <si>
+    <t>A pair of leather boots which, no matter how much they are scrubbed, will always be slightly muddy and leave dirty footprints. You are immune to the effects of difficult terrain caused by loose earth, mud, high water, or similar effects. You cannot die by suffocation due to water or earth.</t>
+  </si>
+  <si>
+    <t>Ring of Monkey's Grip</t>
+  </si>
+  <si>
+    <t>Charming Bouquet</t>
   </si>
   <si>
     <t>60gp</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>https://www.dndbeyond.com/magic-items/4682-necklace-of-adaptation?srsltid=AfmBOoo8rmmnt83MlpKBVuIpMyQI73_1X5q0qMIC7rnkD2WYS0AKw3gq</t>
-  </si>
-  <si>
-    <t>While wearing this necklace, you can breathe normally in any environment, and you have Advantage on saving throws made to avoid or end the Poisoned condition.</t>
-  </si>
-  <si>
-    <t>Damaged, Secondhand bag of holding</t>
-  </si>
-  <si>
-    <t>40gp</t>
-  </si>
-  <si>
-    <t>Homebrew</t>
-  </si>
-  <si>
-    <t>As standard Bag of Holding, but when you withdraw an item, you must roll 1d6. On a roll of 1-2, you retrieve the item you intended. On a roll of 3-4, you retrieve nothing. On a roll of 5-6, you retrieve an item chosen by the DM. Items may only be retrieved once per minute, as an action.</t>
-  </si>
-  <si>
-    <t>Spies' Murmur</t>
-  </si>
-  <si>
-    <t>https://dnd5e.wikidot.com/wondrous-items:spies-murmur</t>
-  </si>
-  <si>
-    <t>This headpiece, crafted from dark metal, is worn curved around the ear. If you know a creature wearing another spies' murmur and that creature is within 1 mile of you, you can communicate telepathically with each other. As a bonus action, you can allow that creature to hear everything you hear for 1 hour. You can end this effect as a bonus action, and it ends if you're incapacitated.</t>
-  </si>
-  <si>
-    <t>Slippers of Spider Climbing</t>
-  </si>
-  <si>
-    <t>https://roll20.net/compendium/dnd5e/Slippers%20of%20Spider%20Climbing#content</t>
-  </si>
-  <si>
-    <t>While you wear these light shoes, you can move up, down, and across vertical surfaces and upside down along ceilings, while leaving your hands free. You have a climbing speed equal to your walking speed. However, the slippers don't allow you to move this way on a slippery surface, such as one covered by ice or oil.</t>
-  </si>
-  <si>
-    <t>Potion of Healing(Standard)</t>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bouquet of roses that never withers or dies, despite being cut. This item is a simple melee weapon with the Finesse property that deals 1d4 piercing or psychic damage on a successful hit. You may cast Charm Person (DC 14) up to three times per day, but you must give the targeted creature the bouquet in order. If the creature no longer holds the bouquet, or you take damage from it, the spell ends automatically. </t>
+  </si>
+  <si>
+    <t>Watchman's Pocket Watch</t>
+  </si>
+  <si>
+    <t>200gp</t>
+  </si>
+  <si>
+    <t>An enchanted silver pocket watch that always shows the correct time, has a built in alarm function, and does not require winding. You always know the correct time while this watch is on your person.Once per day, you may cast the Alarm spell as a ritual. By overwinding the watch, destroying the item, you may cast the Time Stop spell as it breaks. This version of the spell only permits you to take a single additional turn.</t>
+  </si>
+  <si>
+    <t>Branding Battleaxe</t>
+  </si>
+  <si>
+    <t>Greystone Smithy</t>
+  </si>
+  <si>
+    <t>This axe is a magic weapon. Once per day, as an attack you can hurl it as though it had the Thrown (20/30) property and cast the Branding Smite spell (no bonus action required) at 2nd level. All creatures within 5 feet of the target take radiant damage equal to the damage dealt by the spell.</t>
+  </si>
+  <si>
+    <t>Resonant Bowstring</t>
+  </si>
+  <si>
+    <t>35gp</t>
+  </si>
+  <si>
+    <t>Hunter's Guild</t>
+  </si>
+  <si>
+    <t>As a free action after loosing an arrow from this bowstring, you can choose to perceive with your own senses as though you were in the space of that arrow. Whilst doing so, you are blind and deaf to your own surroundings, but gain 20 feet of blindsight from the space of the arrow. This effect can persist for up to an hour, if the arrow is destroyed, or you choose to end it as an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String Silencers </t>
   </si>
   <si>
     <t>20gp</t>
   </si>
   <si>
-    <t>Potion</t>
-  </si>
-  <si>
     <t>Any number</t>
-  </si>
-  <si>
-    <t>https://dnd5e.wikidot.com/wondrous-items:potion-of-healing</t>
-  </si>
-  <si>
-    <t>You regain hit points when you drink this potion. The number of hit points depends on the potion's rarity, as shown in the Potions of Healing table. Whatever its potency, the potion's red liquid glimmers when agitated. (2d4+2)</t>
-  </si>
-  <si>
-    <t>Potion of Healing(Greater)</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>You regain hit points when you drink this potion. The number of hit points depends on the potion's rarity, as shown in the Potions of Healing table. Whatever its potency, the potion's red liquid glimmers when agitated. (4d4+4)</t>
-  </si>
-  <si>
-    <t>Potion of Fire Breath</t>
-  </si>
-  <si>
-    <t>30gp</t>
-  </si>
-  <si>
-    <t>https://dnd5e.wikidot.com/wondrous-items:potion-of-fire-breath</t>
-  </si>
-  <si>
-    <t>After drinking this potion, you can use a bonus action to exhale fire at a target within 30 feet of you. The target must make a DC 13 Dexterity saving throw, taking 4d6 fire damage on a failed save, or half as much damage on a successful one. The effect ends after you exhale the fire three times or when 1 hour has passed.</t>
-  </si>
-  <si>
-    <t>Potion of Water Breathing</t>
-  </si>
-  <si>
-    <t>15gp</t>
-  </si>
-  <si>
-    <t>https://dnd5e.wikidot.com/wondrous-items:potion-of-water-breathing</t>
-  </si>
-  <si>
-    <t>You can breathe underwater for 1 hour after drinking this potion. Its cloudy green fluid smells of the sea and has a jellyfish-like bubble floating in it.</t>
-  </si>
-  <si>
-    <t>Helm of Sharp Thought</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may cast the Mind Sliver cantrip at will, with a Save DC of 14. </t>
-  </si>
-  <si>
-    <t>Boots of the Bogstrider</t>
-  </si>
-  <si>
-    <t>140gp</t>
-  </si>
-  <si>
-    <t>A pair of leather boots which, no matter how much they are scrubbed, will always be slightly muddy and leave dirty footprints. You are immune to the effects of difficult terrain caused by loose earth, mud, high water, or similar effects. You cannot die by suffocation due to water or earth.</t>
-  </si>
-  <si>
-    <t>Ring of Monkey's Grip</t>
-  </si>
-  <si>
-    <t>Charming Bouquet</t>
-  </si>
-  <si>
-    <t>Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bouquet of roses that never withers or dies, despite being cut. This item is a simple melee weapon with the Finesse property that deals 1d4 piercing or psychic damage on a successful hit. You may cast Charm Person (DC 14) up to three times per day, but you must give the targeted creature the bouquet in order. If the creature no longer holds the bouquet, or you take damage from it, the spell ends automatically. </t>
-  </si>
-  <si>
-    <t>Watchman's Pocket Watch</t>
-  </si>
-  <si>
-    <t>200gp</t>
-  </si>
-  <si>
-    <t>An enchanted silver pocket watch that always shows the correct time, has a built in alarm function, and does not require winding. You always know the correct time while this watch is on your person.Once per day, you may cast the Alarm spell as a ritual. By overwinding the watch, destroying the item, you may cast the Time Stop spell as it breaks. This version of the spell only permits you to take a single additional turn.</t>
-  </si>
-  <si>
-    <t>Branding Battleaxe</t>
-  </si>
-  <si>
-    <t>Greystone Smithy</t>
-  </si>
-  <si>
-    <t>This axe is a magic weapon. Once per day, as an attack you can hurl it as though it had the Thrown (20/30) property and cast the Branding Smite spell (no bonus action required) at 2nd level. All creatures within 5 feet of the target take radiant damage equal to the damage dealt by the spell.</t>
-  </si>
-  <si>
-    <t>Resonant Bowstring</t>
-  </si>
-  <si>
-    <t>35gp</t>
-  </si>
-  <si>
-    <t>Hunter's Guild</t>
-  </si>
-  <si>
-    <t>As a free action after loosing an arrow from this bowstring, you can choose to perceive with your own senses as though you were in the space of that arrow. Whilst doing so, you are blind and deaf to your own surroundings, but gain 20 feet of blindsight from the space of the arrow. This effect can persist for up to an hour, if the arrow is destroyed, or you choose to end it as an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String Silencers </t>
   </si>
   <si>
     <t xml:space="preserve">You have a -1 penalty to attack rolls with the weapon these are attached to. These can be attached or detached from a bow as an action. Furthermore, When you shoot this weapon whilst hidden, and miss, you do not reveal your position or lose the Hidden condition. If you hit, you may immediately take the Hide action as a reaction to attempt to conceal yourself again.
@@ -315,6 +319,51 @@
   </si>
   <si>
     <t>If you have no arrows to shoot, you can touch the symbol on the back of these gloves as an object interaction, conjuring a single arrow in your hand. Regardless of the bow it is shot from, this arrow always does 1d4 piercing damage on a successful hit. Upon shooting this arrow, the conjured arrow disappear after one round. You can also touch the symbol on these gloves and conjure any of the following objects, which dissipate after one hour. You may only have one object conjured at once: A bowstring, a Wide brimmed hat, A small utility knife(1d2 damage), A match, A small screwdriver(flathead), A needle</t>
+  </si>
+  <si>
+    <t>Thief Sheath(Hilt)</t>
+  </si>
+  <si>
+    <t>You have advantage on all Dexterity (Sleight of Hand) checks made to conceal, or subtly draw the weapon in this sheath, as the blade extrudes into an extradimensional space.</t>
+  </si>
+  <si>
+    <t>Thief Sheath(Full)</t>
+  </si>
+  <si>
+    <t>80gp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve">Whilst sheathed, a weapon in this sheath is invisible, including the sheath itself. This sheath provides the benefit of a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>Thief Sheath (Hilt)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> in addition to this effect.</t>
+    </r>
+  </si>
+  <si>
+    <t>Striker Sheath</t>
+  </si>
+  <si>
+    <t>This weapon sheath combines a small revervoir of flammable oil with a piece of flint positioned near the mouth of the weapon cover. Once per short rest, you can douse the weapon in oil and ignite it on the striker flint as part of drawing the weapon. Until the start of your next turn, you deal an additional 1d4 Fire damage with that weapon, and have advantage on Charisma (Intimidation) checks whilst you brandish it.</t>
   </si>
   <si>
     <t>Material Name</t>
@@ -482,9 +531,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>50gp + Weapon Price</t>
-  </si>
-  <si>
     <t>You have advantage on checks made to maintain your grip on this weapon, making it more difficult to disarm you. Can be combined with other materials and enchantments.</t>
   </si>
   <si>
@@ -563,10 +609,7 @@
     <t>Memnesium</t>
   </si>
   <si>
-    <t>140gp + Weapon Price</t>
-  </si>
-  <si>
-    <t>2x item cost</t>
+    <t xml:space="preserve"> 400gp + Armour Price</t>
   </si>
   <si>
     <t>+1,  When hitting a creature whilst hidden with this weapon, the creature must make a DC 14 Wisdom saving throw. On a failure, the creature forgets it was attacked by you, and you remain hidden to that creature. On a success, it becomes aware of your presence. In either case, it has disadvantage on Wisdom (Perception) checks to perceive you, and disadvantage on it's next attack directed at you, for the next minute. A creature that succeeds on this saving throw is immune to the effects of Memnesium for the next 24 hours</t>
@@ -576,6 +619,9 @@
   </si>
   <si>
     <t>Stone</t>
+  </si>
+  <si>
+    <t>300gp + Weapon Price</t>
   </si>
   <si>
     <t>Balcorite</t>
@@ -606,7 +652,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,6 +704,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -794,10 +846,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1156,11 +1204,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
@@ -1173,7 +1221,7 @@
     <col min="10" max="10" width="121.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="43.5">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +1279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="43.5">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1260,7 +1308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="29.25">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,12 +1337,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="72.75">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -1303,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1312,18 +1360,18 @@
         <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="72.75">
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>37</v>
@@ -1347,7 +1395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="29.25">
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1376,12 +1424,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="43.5">
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
@@ -1399,18 +1447,18 @@
         <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="43.5">
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
@@ -1428,18 +1476,18 @@
         <v>14</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="29.25">
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -1450,25 +1498,25 @@
       <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
+      <c r="G11" s="1">
+        <v>12</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="3" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="29.25">
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
@@ -1479,25 +1527,25 @@
       <c r="F12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
+      <c r="G12" s="1">
+        <v>6</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="43.5">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -1515,18 +1563,18 @@
         <v>14</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="29.25">
+      <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
@@ -1538,24 +1586,24 @@
         <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="3" t="s">
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
@@ -1579,7 +1627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="29.25">
       <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
@@ -1599,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>42</v>
@@ -1608,7 +1656,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
@@ -1628,19 +1676,19 @@
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="43.5">
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>25</v>
@@ -1649,27 +1697,27 @@
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="43.5">
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>37</v>
@@ -1684,21 +1732,21 @@
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="39" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>25</v>
@@ -1707,27 +1755,27 @@
         <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="43.5">
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>37</v>
@@ -1742,21 +1790,21 @@
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="57.75">
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
@@ -1768,24 +1816,24 @@
         <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="57.75">
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
@@ -1800,21 +1848,21 @@
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="72.75">
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
@@ -1829,49 +1877,103 @@
         <v>1</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="29.25">
+      <c r="B25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="29.25">
+      <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="43.5">
+      <c r="B27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1882,7 +1984,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1893,7 +1995,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1904,7 +2006,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1915,7 +2017,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1926,7 +2028,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1937,7 +2039,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1948,7 +2050,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1959,7 +2061,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1970,7 +2072,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1981,7 +2083,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1992,7 +2094,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2003,7 +2105,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2014,7 +2116,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2025,7 +2127,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2036,7 +2138,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2047,7 +2149,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2058,7 +2160,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2069,7 +2171,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2080,7 +2182,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2091,7 +2193,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2102,7 +2204,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2113,7 +2215,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2124,7 +2226,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2135,7 +2237,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2146,7 +2248,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2157,7 +2259,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2168,7 +2270,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2179,7 +2281,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2190,7 +2292,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2201,7 +2303,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2212,7 +2314,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2223,7 +2325,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2234,7 +2336,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2245,7 +2347,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2256,7 +2358,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2267,7 +2369,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2278,7 +2380,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2289,7 +2391,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2300,7 +2402,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2311,7 +2413,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2347,11 +2449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACFE06E-4D9D-4BA5-BB28-28E6651D767D}">
   <dimension ref="B3:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
@@ -2365,263 +2467,263 @@
     <col min="11" max="11" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="29.25">
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="57.75">
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="62.25" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="69" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="48" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="87">
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="57.75">
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2633,7 +2735,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2645,7 +2747,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2657,7 +2759,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2669,7 +2771,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2681,7 +2783,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2693,7 +2795,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2705,7 +2807,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2717,7 +2819,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2729,7 +2831,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2741,7 +2843,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2753,7 +2855,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2765,7 +2867,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2777,7 +2879,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2789,7 +2891,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2801,7 +2903,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2813,7 +2915,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2825,7 +2927,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2837,7 +2939,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2849,7 +2951,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2861,7 +2963,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2873,7 +2975,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2885,7 +2987,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2897,7 +2999,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2909,7 +3011,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2921,7 +3023,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2933,7 +3035,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2945,7 +3047,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2957,7 +3059,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2969,7 +3071,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2981,7 +3083,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2993,7 +3095,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3005,7 +3107,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3033,11 +3135,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
